--- a/Base/Teams/Giants/Players Data.xlsx
+++ b/Base/Teams/Giants/Players Data.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/Simulation app/Giants/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_B7B4D015A723526C74341936FCEA4577E13291D6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBE80E80-D29E-42D4-A6CF-F48E19DEC9AB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -110,8 +104,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,14 +168,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -228,7 +214,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,27 +246,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,24 +280,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -505,16 +455,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,9 +479,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -551,49 +499,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
         <v>3</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
       <c r="F3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -611,9 +559,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -631,9 +579,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -651,9 +599,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -671,9 +619,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -691,9 +639,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -711,9 +659,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -737,14 +685,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -767,7 +715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -775,10 +723,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -793,7 +741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -801,10 +749,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -819,7 +767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -845,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -871,7 +819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -879,25 +827,25 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -923,7 +871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -931,25 +879,25 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F8">
         <v>7</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -975,7 +923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1001,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1009,7 +957,7 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -1027,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1053,7 +1001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1061,10 +1009,10 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1079,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1087,13 +1035,13 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D14">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1105,7 +1053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1113,10 +1061,10 @@
         <v>25</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1131,7 +1079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1157,7 +1105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>

--- a/Base/Teams/Giants/Players Data.xlsx
+++ b/Base/Teams/Giants/Players Data.xlsx
@@ -487,7 +487,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -496,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -507,16 +507,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
         <v>7</v>
       </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -527,13 +527,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>16</v>
@@ -573,10 +573,10 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -723,10 +723,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -735,10 +735,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -749,10 +749,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -801,11 +801,11 @@
         <v>9</v>
       </c>
       <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
         <v>5</v>
       </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
       <c r="E5">
         <v>0</v>
       </c>
@@ -813,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -827,13 +827,13 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F6">
         <v>6</v>
@@ -853,16 +853,16 @@
         <v>22</v>
       </c>
       <c r="C7">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G7">
         <v>11</v>
@@ -879,13 +879,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -957,10 +957,10 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>7</v>
@@ -1009,10 +1009,10 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1061,16 +1061,16 @@
         <v>25</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
         <v>3</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
       </c>
       <c r="G15">
         <v>8</v>
@@ -1113,7 +1113,7 @@
         <v>27</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <v>2</v>

--- a/Base/Teams/Giants/Players Data.xlsx
+++ b/Base/Teams/Giants/Players Data.xlsx
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -507,13 +507,13 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -527,13 +527,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D4">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <v>16</v>
@@ -723,10 +723,10 @@
         <v>6</v>
       </c>
       <c r="C2">
+        <v>31</v>
+      </c>
+      <c r="D2">
         <v>23</v>
-      </c>
-      <c r="D2">
-        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -749,10 +749,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -827,19 +827,19 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -853,19 +853,19 @@
         <v>22</v>
       </c>
       <c r="C7">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7">
         <v>7</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7">
         <v>7</v>
@@ -879,13 +879,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -931,10 +931,10 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1009,7 +1009,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1035,10 +1035,10 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D14">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E14">
         <v>6</v>
@@ -1061,10 +1061,10 @@
         <v>25</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>4</v>

--- a/Base/Teams/Giants/Players Data.xlsx
+++ b/Base/Teams/Giants/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -35,6 +35,9 @@
     <t>M.Glennon</t>
   </si>
   <si>
+    <t>J.Fromm</t>
+  </si>
+  <si>
     <t>S.Barkley</t>
   </si>
   <si>
@@ -90,6 +93,9 @@
   </si>
   <si>
     <t>D.Pettis</t>
+  </si>
+  <si>
+    <t>D.Sills</t>
   </si>
   <si>
     <t>K.Rudolph</t>
@@ -456,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -487,10 +493,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -507,16 +513,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -527,16 +533,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D4">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>12</v>
       </c>
       <c r="F4">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -547,16 +553,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -567,16 +573,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -587,16 +593,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -613,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -633,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -647,10 +653,10 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -676,6 +682,26 @@
         <v>0</v>
       </c>
       <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>1</v>
       </c>
     </row>
@@ -686,7 +712,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -697,22 +723,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -720,13 +746,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -746,13 +772,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -772,7 +798,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -798,13 +824,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
         <v>9</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -824,25 +850,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E6">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F6">
         <v>7</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -850,7 +876,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>55</v>
@@ -876,16 +902,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -902,13 +928,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -928,7 +954,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>20</v>
@@ -954,7 +980,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>13</v>
@@ -980,7 +1006,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -1006,10 +1032,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -1032,25 +1058,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C14">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1058,22 +1084,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -1084,25 +1110,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1110,24 +1136,50 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
         <v>3</v>
       </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
         <v>1</v>
       </c>
     </row>

--- a/Base/Teams/Giants/Players Data.xlsx
+++ b/Base/Teams/Giants/Players Data.xlsx
@@ -493,7 +493,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -533,13 +533,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -553,13 +553,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D5">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>16</v>
@@ -749,7 +749,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>24</v>
@@ -775,10 +775,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -853,7 +853,7 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>33</v>
@@ -1035,7 +1035,7 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -1061,10 +1061,10 @@
         <v>26</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1087,10 +1087,10 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D15">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E15">
         <v>6</v>
@@ -1113,7 +1113,7 @@
         <v>27</v>
       </c>
       <c r="C16">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16">
         <v>19</v>
